--- a/survey_data_cleaned.xlsx
+++ b/survey_data_cleaned.xlsx
@@ -471,37 +471,37 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>10. Extra atmosphere</t>
+          <t>10. Pay extra for atmosphere</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>11. Extra location</t>
+          <t>11. Pay extra for location</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>12. Extra amenities</t>
+          <t>12. Pay extra for amenities</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>13. Extra activities</t>
+          <t>13. Pay extra for activities</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>14. Excellent activitie</t>
+          <t>14. Activities over everything else</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>15. Excellent amenities</t>
+          <t>15. Amenities over everything else</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>16. Excellent everything</t>
+          <t>16. Everything must be perfect</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -581,32 +581,32 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_Broad choice of activities</t>
+          <t>17. Single important factor_Broad choice of activities</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_Convenient or appealing location</t>
+          <t>17. Single important factor_Convenient or appealing location</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_High-quality amenities</t>
+          <t>17. Single important factor_High-quality amenities</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_Lowest price</t>
+          <t>17. Single important factor_Lowest price</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_Others</t>
+          <t>17. Single important factor_Others</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>17. Single factor_Outstanding visual and Appealing atmosphere</t>
+          <t>17. Single important factor_Outstanding visual and Appealing atmosphere</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -767,16 +767,16 @@
         <v>175</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="n">
         <v>40</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>175</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>100</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>100</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="n">
         <v>60</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>100</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1268,16 +1268,16 @@
         <v>100</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
         <v>40</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>100</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1435,16 +1435,16 @@
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>75</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC7" t="n">
         <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>75</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>100</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC8" t="n">
         <v>30</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>100</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
         <v>30</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>100</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC10" t="n">
         <v>40</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>100</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>150</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
         <v>30</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>150</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -2437,16 +2437,16 @@
         <v>100</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="n">
         <v>30</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>100</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="n">
         <v>40</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2771,16 +2771,16 @@
         <v>125</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
         <v>40</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2938,16 +2938,16 @@
         <v>75</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         <v>75</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="n">
         <v>60</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>75</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>125</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="n">
         <v>40</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -3439,16 +3439,16 @@
         <v>75</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="n">
         <v>50</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>75</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="n">
         <v>30</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -3773,16 +3773,16 @@
         <v>100</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="n">
         <v>60</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>100</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -3940,16 +3940,16 @@
         <v>100</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="n">
         <v>50</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>100</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>100</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
         <v>60</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>100</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -4274,16 +4274,16 @@
         <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="n">
         <v>30</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -4441,16 +4441,16 @@
         <v>100</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="n">
         <v>40</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>100</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4608,16 +4608,16 @@
         <v>50</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="n">
         <v>50</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -4775,16 +4775,16 @@
         <v>100</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="n">
         <v>50</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>100</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -4942,16 +4942,16 @@
         <v>100</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="n">
         <v>50</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>100</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -5109,16 +5109,16 @@
         <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="n">
         <v>30</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -5276,16 +5276,16 @@
         <v>100</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="n">
         <v>40</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>100</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -5443,16 +5443,16 @@
         <v>75</v>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -5610,16 +5610,16 @@
         <v>100</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AB31" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -5777,16 +5777,16 @@
         <v>125</v>
       </c>
       <c r="Z32" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="n">
         <v>30</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -5944,16 +5944,16 @@
         <v>125</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB33" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         <v>100</v>
       </c>
       <c r="Z34" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="n">
         <v>30</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>100</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6278,16 +6278,16 @@
         <v>100</v>
       </c>
       <c r="Z35" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="n">
         <v>50</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>100</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -6445,16 +6445,16 @@
         <v>100</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -6612,16 +6612,16 @@
         <v>100</v>
       </c>
       <c r="Z37" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="n">
         <v>50</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>100</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -6779,16 +6779,16 @@
         <v>100</v>
       </c>
       <c r="Z38" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
         <v>40</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>100</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -6946,16 +6946,16 @@
         <v>125</v>
       </c>
       <c r="Z39" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="n">
         <v>60</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>125</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -7113,16 +7113,16 @@
         <v>75</v>
       </c>
       <c r="Z40" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="n">
         <v>60</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>75</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -7280,16 +7280,16 @@
         <v>125</v>
       </c>
       <c r="Z41" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="n">
         <v>60</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>125</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -7447,16 +7447,16 @@
         <v>75</v>
       </c>
       <c r="Z42" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="n">
         <v>50</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>75</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -7614,16 +7614,16 @@
         <v>20</v>
       </c>
       <c r="Z43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -7781,16 +7781,16 @@
         <v>75</v>
       </c>
       <c r="Z44" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="n">
         <v>40</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>75</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -7948,16 +7948,16 @@
         <v>75</v>
       </c>
       <c r="Z45" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="n">
         <v>40</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>75</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -8115,16 +8115,16 @@
         <v>100</v>
       </c>
       <c r="Z46" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC46" t="n">
         <v>40</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>100</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -8282,16 +8282,16 @@
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC47" t="n">
         <v>30</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -8449,16 +8449,16 @@
         <v>75</v>
       </c>
       <c r="Z48" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="n">
         <v>50</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>75</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>100</v>
       </c>
       <c r="Z49" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="n">
         <v>50</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>100</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>125</v>
       </c>
       <c r="Z50" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="n">
         <v>60</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>125</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -8950,16 +8950,16 @@
         <v>20</v>
       </c>
       <c r="Z51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -9117,16 +9117,16 @@
         <v>175</v>
       </c>
       <c r="Z52" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="n">
+        <v>175</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="n">
         <v>60</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>175</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -9284,16 +9284,16 @@
         <v>75</v>
       </c>
       <c r="Z53" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="n">
         <v>50</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>75</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -9451,16 +9451,16 @@
         <v>100</v>
       </c>
       <c r="Z54" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="n">
         <v>30</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>100</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -9618,16 +9618,16 @@
         <v>75</v>
       </c>
       <c r="Z55" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="n">
         <v>50</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>75</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -9785,16 +9785,16 @@
         <v>175</v>
       </c>
       <c r="Z56" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AA56" t="n">
+        <v>175</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="n">
         <v>60</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>175</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -9952,16 +9952,16 @@
         <v>20</v>
       </c>
       <c r="Z57" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -10119,16 +10119,16 @@
         <v>75</v>
       </c>
       <c r="Z58" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="n">
         <v>30</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>75</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -10286,16 +10286,16 @@
         <v>175</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AB59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -10453,16 +10453,16 @@
         <v>75</v>
       </c>
       <c r="Z60" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA60" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="n">
         <v>60</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>75</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>175</v>
       </c>
       <c r="Z61" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="n">
+        <v>175</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="n">
         <v>40</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>175</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -10787,16 +10787,16 @@
         <v>75</v>
       </c>
       <c r="Z62" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="n">
         <v>30</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>75</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>20</v>
       </c>
       <c r="Z63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -11121,16 +11121,16 @@
         <v>100</v>
       </c>
       <c r="Z64" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA64" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="n">
         <v>30</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>100</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -11288,16 +11288,16 @@
         <v>125</v>
       </c>
       <c r="Z65" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA65" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="n">
         <v>40</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>125</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -11455,16 +11455,16 @@
         <v>75</v>
       </c>
       <c r="Z66" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA66" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="n">
         <v>40</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>75</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -11622,16 +11622,16 @@
         <v>20</v>
       </c>
       <c r="Z67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -11789,16 +11789,16 @@
         <v>75</v>
       </c>
       <c r="Z68" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA68" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB68" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AC68" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -11956,16 +11956,16 @@
         <v>75</v>
       </c>
       <c r="Z69" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA69" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="n">
         <v>50</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>75</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -12123,16 +12123,16 @@
         <v>75</v>
       </c>
       <c r="Z70" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA70" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="n">
         <v>40</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>75</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>

--- a/survey_data_cleaned.xlsx
+++ b/survey_data_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS70"/>
+  <dimension ref="A1:AT70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,130 +531,135 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>23. Timestamp</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>4. Motivation_Adventure and excitement</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>4. Motivation_Other (please only choose if fits best)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>4. Motivation_Relaxation and escaping routine</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>4. Motivation_Socializing and meeting new people</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>min_total_price</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>max_total_price</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>min_surfing_price</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>max_surfing_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>min_horse_price</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>max_horse_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_Broad choice of activities</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_Convenient or appealing location</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_High-quality amenities</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_Lowest price</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_Others</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>17. Single important factor_Outstanding visual and Appealing atmosphere</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Hiking</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Hiking, Skiing</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Horseback Riding</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Horseback Riding, Hiking</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Horseback Riding, Hiking, Skiing</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>2. Events_None of the above</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Skiing</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Surfing</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Surfing, Hiking</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>2. Events_Surfing, Skiing</t>
         </is>
@@ -748,11 +753,13 @@
           <t>36</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>1</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>12/25/2024 08:24</t>
+        </is>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -761,26 +768,26 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="n">
         <v>175</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>75</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>175</v>
       </c>
-      <c r="AB2" t="n">
-        <v>20</v>
-      </c>
       <c r="AC2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="n">
         <v>40</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
@@ -794,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -815,15 +822,18 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,11 +925,13 @@
           <t>33</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>1</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>12/25/2024 10:04</t>
+        </is>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -928,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="n">
         <v>100</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>75</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" t="n">
-        <v>20</v>
-      </c>
       <c r="AC3" t="n">
         <v>20</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -979,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -991,6 +1003,9 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,11 +1097,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>1</v>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>12/25/2024 10:39</t>
+        </is>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1095,28 +1112,28 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
         <v>100</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>75</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>100</v>
       </c>
-      <c r="AB4" t="n">
-        <v>20</v>
-      </c>
       <c r="AC4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="n">
         <v>60</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1131,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -1158,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1249,11 +1269,13 @@
           <t>31</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v>1</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>12/25/2024 12:12</t>
+        </is>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1262,28 +1284,28 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
         <v>100</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>75</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>100</v>
       </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
       <c r="AC5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD5" t="n">
         <v>40</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1304,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1325,6 +1347,9 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1416,11 +1441,13 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>1</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>12/25/2024 13:00</t>
+        </is>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1429,25 +1456,25 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>20</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1456,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -1492,6 +1519,9 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1583,11 +1613,13 @@
           <t>35</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>1</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>12/25/2024 13:21</t>
+        </is>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1596,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
         <v>75</v>
@@ -1608,22 +1640,22 @@
         <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="n">
         <v>50</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1632,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1659,6 +1691,9 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1750,39 +1785,41 @@
           <t>26</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>12/25/2024 13:49</t>
+        </is>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="n">
         <v>100</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>75</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>100</v>
       </c>
-      <c r="AB8" t="n">
-        <v>20</v>
-      </c>
       <c r="AC8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="n">
         <v>30</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
@@ -1790,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -1826,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1917,11 +1957,13 @@
           <t>31</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>1</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>12/25/2024 14:13</t>
+        </is>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1930,31 +1972,31 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="n">
         <v>30</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="n">
         <v>30</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1966,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -1993,6 +2035,9 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,39 +2129,41 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12/25/2024 14:28</t>
+        </is>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="n">
         <v>100</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>75</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>100</v>
       </c>
-      <c r="AB10" t="n">
-        <v>20</v>
-      </c>
       <c r="AC10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="n">
         <v>40</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
@@ -2130,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -2160,6 +2207,9 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2251,11 +2301,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>1</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>12/25/2024 14:55</t>
+        </is>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2264,26 +2316,26 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="n">
         <v>150</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>75</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>150</v>
       </c>
-      <c r="AB11" t="n">
-        <v>20</v>
-      </c>
       <c r="AC11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="n">
         <v>30</v>
       </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
@@ -2297,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -2309,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -2327,6 +2379,9 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2418,39 +2473,41 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>12/25/2024 15:00</t>
+        </is>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="n">
         <v>100</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>75</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>100</v>
       </c>
-      <c r="AB12" t="n">
-        <v>20</v>
-      </c>
       <c r="AC12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="n">
         <v>30</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
@@ -2464,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -2476,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -2494,6 +2551,9 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2585,11 +2645,13 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T13" t="n">
-        <v>1</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>12/25/2024 15:11</t>
+        </is>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2598,26 +2660,26 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
         <v>40</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="n">
         <v>40</v>
       </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
@@ -2625,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2649,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -2661,6 +2723,9 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2752,11 +2817,13 @@
           <t>23</t>
         </is>
       </c>
-      <c r="T14" t="n">
-        <v>1</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>12/25/2024 15:46</t>
+        </is>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2765,26 +2832,26 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="n">
         <v>125</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>75</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>125</v>
       </c>
-      <c r="AB14" t="n">
-        <v>20</v>
-      </c>
       <c r="AC14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="n">
         <v>40</v>
       </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
@@ -2798,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2828,6 +2895,9 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2919,8 +2989,10 @@
           <t>26</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>12/25/2024 15:47</t>
+        </is>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2929,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>75</v>
@@ -2944,13 +3016,13 @@
         <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="n">
         <v>20</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2959,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -2983,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -2995,6 +3067,9 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,11 +3161,13 @@
           <t>32</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>12/25/2024 16:45</t>
+        </is>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3099,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
         <v>75</v>
@@ -3111,14 +3188,14 @@
         <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="n">
         <v>60</v>
       </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
@@ -3132,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -3150,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -3162,6 +3239,9 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3253,8 +3333,10 @@
           <t>36</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>12/25/2024 16:58</t>
+        </is>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3263,34 +3345,34 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="n">
         <v>125</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>75</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>125</v>
       </c>
-      <c r="AB17" t="n">
-        <v>20</v>
-      </c>
       <c r="AC17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="n">
         <v>40</v>
       </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -3302,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -3329,6 +3411,9 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3420,11 +3505,13 @@
           <t>29</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>1</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>12/25/2024 16:59</t>
+        </is>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3433,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
         <v>75</v>
@@ -3445,14 +3532,14 @@
         <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="n">
         <v>50</v>
       </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
       <c r="AE18" t="n">
         <v>0</v>
       </c>
@@ -3460,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -3496,6 +3583,9 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3587,39 +3677,41 @@
           <t>27</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>12/25/2024 17:15</t>
+        </is>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="n">
         <v>30</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="n">
         <v>30</v>
       </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
@@ -3633,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -3663,6 +3755,9 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3754,11 +3849,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>1</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>12/25/2024 17:25</t>
+        </is>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3767,26 +3864,26 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="n">
         <v>100</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>75</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>100</v>
       </c>
-      <c r="AB20" t="n">
-        <v>20</v>
-      </c>
       <c r="AC20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="n">
         <v>60</v>
       </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
@@ -3800,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
@@ -3812,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -3830,6 +3927,9 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,39 +4021,41 @@
           <t>27</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>12/25/2024 17:42</t>
+        </is>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="n">
         <v>100</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>75</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>100</v>
       </c>
-      <c r="AB21" t="n">
-        <v>20</v>
-      </c>
       <c r="AC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="n">
         <v>50</v>
       </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
@@ -3961,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
@@ -3976,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -3997,6 +4099,9 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4088,11 +4193,13 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>1</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>12/25/2024 18:09</t>
+        </is>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4101,26 +4208,26 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="n">
         <v>100</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>75</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>100</v>
       </c>
-      <c r="AB22" t="n">
-        <v>20</v>
-      </c>
       <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="n">
         <v>60</v>
       </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
@@ -4134,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -4164,6 +4271,9 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,8 +4365,10 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>12/25/2024 19:54</t>
+        </is>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -4265,29 +4377,29 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z23" t="n">
         <v>30</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="n">
         <v>30</v>
       </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
@@ -4301,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -4319,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
@@ -4331,6 +4443,9 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4422,11 +4537,13 @@
           <t>28</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>1</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>12/25/2024 23:24</t>
+        </is>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -4435,28 +4552,28 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="n">
         <v>100</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>75</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>100</v>
       </c>
-      <c r="AB24" t="n">
-        <v>20</v>
-      </c>
       <c r="AC24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="n">
         <v>40</v>
       </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -4480,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -4498,6 +4615,9 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4589,39 +4709,41 @@
           <t>۲۷</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>12/26/2024 02:24</t>
+        </is>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z25" t="n">
         <v>50</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="n">
         <v>50</v>
       </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
       <c r="AE25" t="n">
         <v>0</v>
       </c>
@@ -4629,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
         <v>0</v>
@@ -4665,6 +4787,9 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4756,39 +4881,41 @@
           <t>26</t>
         </is>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>12/26/2024 06:24</t>
+        </is>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="n">
         <v>100</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>75</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>100</v>
       </c>
-      <c r="AB26" t="n">
-        <v>20</v>
-      </c>
       <c r="AC26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="n">
         <v>50</v>
       </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
@@ -4796,19 +4923,19 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -4832,6 +4959,9 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4923,11 +5053,13 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>1</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>12/26/2024 07:48</t>
+        </is>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4936,26 +5068,26 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
         <v>100</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>75</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>100</v>
       </c>
-      <c r="AB27" t="n">
-        <v>20</v>
-      </c>
       <c r="AC27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="n">
         <v>50</v>
       </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
@@ -4969,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -4990,15 +5122,18 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
       </c>
       <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5090,39 +5225,41 @@
           <t>27</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>12/26/2024 10:41</t>
+        </is>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="n">
         <v>30</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="n">
         <v>30</v>
       </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
       <c r="AE28" t="n">
         <v>0</v>
       </c>
@@ -5130,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -5157,15 +5294,18 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
       </c>
       <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5257,39 +5397,41 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>12/26/2024 11:24</t>
+        </is>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="n">
         <v>100</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>75</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>100</v>
       </c>
-      <c r="AB29" t="n">
-        <v>20</v>
-      </c>
       <c r="AC29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="n">
         <v>40</v>
       </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
@@ -5297,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="n">
         <v>0</v>
@@ -5333,6 +5475,9 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5424,11 +5569,13 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>1</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>12/26/2024 13:25</t>
+        </is>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -5437,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="n">
         <v>75</v>
@@ -5449,13 +5596,13 @@
         <v>75</v>
       </c>
       <c r="AB30" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="n">
         <v>20</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -5470,10 +5617,10 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -5488,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -5500,6 +5647,9 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5591,11 +5741,13 @@
           <t>23</t>
         </is>
       </c>
-      <c r="T31" t="n">
-        <v>1</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>12/26/2024 13:27</t>
+        </is>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -5604,25 +5756,25 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z31" t="n">
         <v>100</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>75</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>100</v>
       </c>
-      <c r="AB31" t="n">
-        <v>20</v>
-      </c>
       <c r="AC31" t="n">
         <v>20</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -5631,19 +5783,19 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -5667,6 +5819,9 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5758,8 +5913,10 @@
           <t>22</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>12/26/2024 14:04</t>
+        </is>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -5768,37 +5925,37 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z32" t="n">
         <v>125</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>75</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>125</v>
       </c>
-      <c r="AB32" t="n">
-        <v>20</v>
-      </c>
       <c r="AC32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="n">
         <v>30</v>
       </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
       <c r="AE32" t="n">
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -5807,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -5834,6 +5991,9 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5925,33 +6085,35 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>12/26/2024 14:12</t>
+        </is>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>75</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>125</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>75</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>125</v>
       </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
@@ -5965,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -5989,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -6001,6 +6163,9 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6092,11 +6257,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>1</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>12/26/2024 14:37</t>
+        </is>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -6105,26 +6272,26 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="n">
         <v>100</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>75</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>100</v>
       </c>
-      <c r="AB34" t="n">
-        <v>20</v>
-      </c>
       <c r="AC34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="n">
         <v>30</v>
       </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
@@ -6132,19 +6299,19 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -6168,6 +6335,9 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6259,44 +6429,46 @@
           <t>22</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>12/26/2024 14:44</t>
+        </is>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="n">
         <v>100</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>75</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>100</v>
       </c>
-      <c r="AB35" t="n">
-        <v>20</v>
-      </c>
       <c r="AC35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="n">
         <v>50</v>
       </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -6308,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -6335,6 +6507,9 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,8 +6601,10 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>0</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>12/26/2024 14:51</t>
+        </is>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -6436,23 +6613,23 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="n">
         <v>75</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>100</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>75</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>100</v>
       </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
@@ -6469,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
@@ -6490,10 +6667,10 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
         <v>0</v>
@@ -6502,6 +6679,9 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6593,47 +6773,49 @@
           <t>22</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>0</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>12/26/2024 15:03</t>
+        </is>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="n">
         <v>100</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>75</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>100</v>
       </c>
-      <c r="AB37" t="n">
-        <v>20</v>
-      </c>
       <c r="AC37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="n">
         <v>50</v>
       </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
       <c r="AE37" t="n">
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -6642,10 +6824,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" t="n">
         <v>0</v>
@@ -6669,6 +6851,9 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6760,39 +6945,41 @@
           <t>26</t>
         </is>
       </c>
-      <c r="T38" t="n">
-        <v>0</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>12/26/2024 15:43</t>
+        </is>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z38" t="n">
         <v>100</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>75</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>100</v>
       </c>
-      <c r="AB38" t="n">
-        <v>20</v>
-      </c>
       <c r="AC38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD38" t="n">
         <v>40</v>
       </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
       <c r="AE38" t="n">
         <v>0</v>
       </c>
@@ -6806,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -6833,9 +7020,12 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6927,39 +7117,41 @@
           <t>21</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>0</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>12/26/2024 17:04</t>
+        </is>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z39" t="n">
         <v>125</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>75</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>125</v>
       </c>
-      <c r="AB39" t="n">
-        <v>20</v>
-      </c>
       <c r="AC39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD39" t="n">
         <v>60</v>
       </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
       <c r="AE39" t="n">
         <v>0</v>
       </c>
@@ -6973,13 +7165,13 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
         <v>1</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
@@ -7003,6 +7195,9 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7094,11 +7289,13 @@
           <t>25</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>1</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>12/26/2024 17:16</t>
+        </is>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -7107,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="n">
         <v>75</v>
@@ -7119,14 +7316,14 @@
         <v>75</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD40" t="n">
         <v>60</v>
       </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
@@ -7140,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -7155,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -7170,6 +7367,9 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7261,11 +7461,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>1</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>12/26/2024 17:27</t>
+        </is>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -7274,31 +7476,31 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z41" t="n">
         <v>125</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>75</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>125</v>
       </c>
-      <c r="AB41" t="n">
-        <v>20</v>
-      </c>
       <c r="AC41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="n">
         <v>60</v>
       </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
@@ -7319,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
@@ -7337,6 +7539,9 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,8 +7633,10 @@
           <t>32</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>0</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>12/26/2024 17:34</t>
+        </is>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -7438,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="n">
         <v>75</v>
@@ -7453,14 +7660,14 @@
         <v>75</v>
       </c>
       <c r="AB42" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="n">
         <v>50</v>
       </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
       <c r="AE42" t="n">
         <v>0</v>
       </c>
@@ -7468,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -7492,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
         <v>0</v>
@@ -7504,6 +7711,9 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7595,38 +7805,40 @@
           <t>35</t>
         </is>
       </c>
-      <c r="T43" t="n">
-        <v>0</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>12/26/2024 17:35</t>
+        </is>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>20</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
         <v>20</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -7641,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>1</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" t="n">
         <v>0</v>
@@ -7671,6 +7883,9 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7762,23 +7977,25 @@
           <t>33</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>12/26/2024 20:43</t>
+        </is>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="n">
         <v>75</v>
@@ -7787,19 +8004,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="n">
         <v>40</v>
       </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -7811,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" t="n">
         <v>0</v>
@@ -7838,6 +8055,9 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7929,11 +8149,13 @@
           <t>27</t>
         </is>
       </c>
-      <c r="T45" t="n">
-        <v>1</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>12/26/2024 20:54</t>
+        </is>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -7942,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
         <v>75</v>
@@ -7954,22 +8176,22 @@
         <v>75</v>
       </c>
       <c r="AB45" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD45" t="n">
         <v>40</v>
       </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
       <c r="AE45" t="n">
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -7996,15 +8218,18 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
       </c>
       <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8096,41 +8321,43 @@
           <t>28</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>12/26/2024 22:03</t>
+        </is>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z46" t="n">
         <v>100</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>75</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>100</v>
       </c>
-      <c r="AB46" t="n">
-        <v>20</v>
-      </c>
       <c r="AC46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD46" t="n">
         <v>40</v>
       </c>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -8160,10 +8387,10 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -8172,6 +8399,9 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8263,11 +8493,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>1</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>12/27/2024 08:20</t>
+        </is>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -8276,26 +8508,26 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z47" t="n">
         <v>30</v>
       </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD47" t="n">
         <v>30</v>
       </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
       <c r="AE47" t="n">
         <v>0</v>
       </c>
@@ -8303,19 +8535,19 @@
         <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" t="n">
         <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" t="n">
         <v>0</v>
@@ -8339,6 +8571,9 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8430,23 +8665,25 @@
           <t>37</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>0</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>12/27/2024 10:29</t>
+        </is>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="n">
         <v>75</v>
@@ -8455,14 +8692,14 @@
         <v>75</v>
       </c>
       <c r="AB48" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="n">
         <v>50</v>
       </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
       <c r="AE48" t="n">
         <v>0</v>
       </c>
@@ -8476,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
         <v>1</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" t="n">
         <v>0</v>
@@ -8506,6 +8743,9 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8597,44 +8837,46 @@
           <t>29</t>
         </is>
       </c>
-      <c r="T49" t="n">
-        <v>0</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>12/27/2024 12:02</t>
+        </is>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z49" t="n">
         <v>100</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>75</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AB49" t="n">
         <v>100</v>
       </c>
-      <c r="AB49" t="n">
-        <v>20</v>
-      </c>
       <c r="AC49" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="n">
         <v>50</v>
       </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
@@ -8646,10 +8888,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" t="n">
         <v>0</v>
@@ -8673,6 +8915,9 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8764,8 +9009,10 @@
           <t>33</t>
         </is>
       </c>
-      <c r="T50" t="n">
-        <v>0</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>12/27/2024 13:10</t>
+        </is>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -8774,37 +9021,37 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z50" t="n">
         <v>125</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>75</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AB50" t="n">
         <v>125</v>
       </c>
-      <c r="AB50" t="n">
-        <v>20</v>
-      </c>
       <c r="AC50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="n">
         <v>60</v>
       </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
       <c r="AE50" t="n">
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -8816,10 +9063,10 @@
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
@@ -8840,6 +9087,9 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8931,38 +9181,40 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>0</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>12/27/2024 15:52</t>
+        </is>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>20</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
         <v>20</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -8977,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51" t="n">
         <v>0</v>
@@ -8995,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -9007,6 +9259,9 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9098,11 +9353,13 @@
           <t>36</t>
         </is>
       </c>
-      <c r="T52" t="n">
-        <v>1</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>12/27/2024 15:55</t>
+        </is>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -9111,26 +9368,26 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z52" t="n">
         <v>175</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>75</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
         <v>175</v>
       </c>
-      <c r="AB52" t="n">
-        <v>20</v>
-      </c>
       <c r="AC52" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="n">
         <v>60</v>
       </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
       <c r="AE52" t="n">
         <v>0</v>
       </c>
@@ -9144,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
         <v>1</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
@@ -9174,6 +9431,9 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9265,11 +9525,13 @@
           <t>36</t>
         </is>
       </c>
-      <c r="T53" t="n">
-        <v>1</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>12/27/2024 16:27</t>
+        </is>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -9278,10 +9540,10 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="n">
         <v>75</v>
@@ -9290,14 +9552,14 @@
         <v>75</v>
       </c>
       <c r="AB53" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="n">
         <v>50</v>
       </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
       <c r="AE53" t="n">
         <v>0</v>
       </c>
@@ -9311,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
         <v>1</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -9341,6 +9603,9 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9432,41 +9697,43 @@
           <t>27</t>
         </is>
       </c>
-      <c r="T54" t="n">
-        <v>0</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>12/27/2024 16:59</t>
+        </is>
       </c>
       <c r="U54" t="n">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="n">
         <v>100</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>75</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AB54" t="n">
         <v>100</v>
       </c>
-      <c r="AB54" t="n">
-        <v>20</v>
-      </c>
       <c r="AC54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="n">
         <v>30</v>
       </c>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -9481,10 +9748,10 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -9508,6 +9775,9 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9599,23 +9869,25 @@
           <t>20</t>
         </is>
       </c>
-      <c r="T55" t="n">
-        <v>0</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>12/27/2024 23:07</t>
+        </is>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="n">
         <v>75</v>
@@ -9624,22 +9896,22 @@
         <v>75</v>
       </c>
       <c r="AB55" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="n">
         <v>50</v>
       </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
       <c r="AE55" t="n">
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -9663,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
         <v>0</v>
@@ -9675,6 +9947,9 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9766,8 +10041,10 @@
           <t>33</t>
         </is>
       </c>
-      <c r="T56" t="n">
-        <v>0</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>12/27/2024 23:10</t>
+        </is>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -9776,37 +10053,37 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z56" t="n">
         <v>175</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>100</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AB56" t="n">
         <v>175</v>
       </c>
-      <c r="AB56" t="n">
-        <v>20</v>
-      </c>
       <c r="AC56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="n">
         <v>60</v>
       </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
       <c r="AE56" t="n">
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
@@ -9836,12 +10113,15 @@
         <v>0</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9933,38 +10213,40 @@
           <t>26</t>
         </is>
       </c>
-      <c r="T57" t="n">
-        <v>0</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>12/28/2024 13:50</t>
+        </is>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>20</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC57" t="n">
         <v>20</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -9973,19 +10255,19 @@
         <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" t="n">
         <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" t="n">
         <v>0</v>
@@ -10009,6 +10291,9 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10100,11 +10385,13 @@
           <t>20</t>
         </is>
       </c>
-      <c r="T58" t="n">
-        <v>1</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>12/28/2024 14:35</t>
+        </is>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -10113,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="n">
         <v>75</v>
@@ -10125,19 +10412,19 @@
         <v>75</v>
       </c>
       <c r="AB58" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="n">
         <v>30</v>
       </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
       <c r="AE58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" t="n">
         <v>0</v>
@@ -10149,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" t="n">
         <v>0</v>
@@ -10176,6 +10463,9 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10267,33 +10557,35 @@
           <t>33</t>
         </is>
       </c>
-      <c r="T59" t="n">
-        <v>0</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>12/28/2024 16:30</t>
+        </is>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>100</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>175</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>100</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AB59" t="n">
         <v>175</v>
       </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
       <c r="AC59" t="n">
         <v>0</v>
       </c>
@@ -10313,13 +10605,13 @@
         <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
         <v>1</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" t="n">
         <v>0</v>
@@ -10343,6 +10635,9 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10434,23 +10729,25 @@
           <t>34</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>0</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>12/28/2024 16:51</t>
+        </is>
       </c>
       <c r="U60" t="n">
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="n">
         <v>75</v>
@@ -10459,14 +10756,14 @@
         <v>75</v>
       </c>
       <c r="AB60" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC60" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="n">
         <v>60</v>
       </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
       <c r="AE60" t="n">
         <v>0</v>
       </c>
@@ -10480,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK60" t="n">
         <v>0</v>
@@ -10498,10 +10795,10 @@
         <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
         <v>0</v>
@@ -10510,6 +10807,9 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10601,39 +10901,41 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T61" t="n">
-        <v>0</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>12/28/2024 17:24</t>
+        </is>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z61" t="n">
         <v>175</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>75</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AB61" t="n">
         <v>175</v>
       </c>
-      <c r="AB61" t="n">
-        <v>20</v>
-      </c>
       <c r="AC61" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="n">
         <v>40</v>
       </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
       <c r="AE61" t="n">
         <v>0</v>
       </c>
@@ -10641,10 +10943,10 @@
         <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
@@ -10665,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0</v>
@@ -10677,6 +10979,9 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10768,8 +11073,10 @@
           <t>28</t>
         </is>
       </c>
-      <c r="T62" t="n">
-        <v>0</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>12/28/2024 17:59</t>
+        </is>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -10778,13 +11085,13 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y62" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z62" t="n">
         <v>75</v>
@@ -10793,19 +11100,19 @@
         <v>75</v>
       </c>
       <c r="AB62" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="n">
         <v>30</v>
       </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
       <c r="AE62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" t="n">
         <v>0</v>
@@ -10835,15 +11142,18 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
       </c>
       <c r="AS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10935,8 +11245,10 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T63" t="n">
-        <v>0</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>12/28/2024 18:20</t>
+        </is>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -10945,37 +11257,37 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y63" t="n">
         <v>20</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
         <v>20</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH63" t="n">
         <v>0</v>
@@ -10984,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" t="n">
         <v>0</v>
@@ -11011,6 +11323,9 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11102,44 +11417,46 @@
           <t>29</t>
         </is>
       </c>
-      <c r="T64" t="n">
-        <v>0</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>12/29/2024 13:27</t>
+        </is>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="n">
         <v>100</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>75</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AB64" t="n">
         <v>100</v>
       </c>
-      <c r="AB64" t="n">
-        <v>20</v>
-      </c>
       <c r="AC64" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="n">
         <v>30</v>
       </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
       <c r="AE64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
@@ -11151,10 +11468,10 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" t="n">
         <v>0</v>
@@ -11178,6 +11495,9 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11269,39 +11589,41 @@
           <t>30</t>
         </is>
       </c>
-      <c r="T65" t="n">
-        <v>0</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>12/29/2024 14:19</t>
+        </is>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="n">
         <v>125</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>75</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AB65" t="n">
         <v>125</v>
       </c>
-      <c r="AB65" t="n">
-        <v>20</v>
-      </c>
       <c r="AC65" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="n">
         <v>40</v>
       </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
       <c r="AE65" t="n">
         <v>0</v>
       </c>
@@ -11315,13 +11637,13 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
         <v>1</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" t="n">
         <v>0</v>
@@ -11345,6 +11667,9 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11436,23 +11761,25 @@
           <t>32</t>
         </is>
       </c>
-      <c r="T66" t="n">
-        <v>0</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>12/29/2024 18:30</t>
+        </is>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="n">
         <v>75</v>
@@ -11461,14 +11788,14 @@
         <v>75</v>
       </c>
       <c r="AB66" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC66" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="n">
         <v>40</v>
       </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
       <c r="AE66" t="n">
         <v>0</v>
       </c>
@@ -11482,13 +11809,13 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
         <v>1</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" t="n">
         <v>0</v>
@@ -11512,6 +11839,9 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11603,38 +11933,40 @@
           <t>22</t>
         </is>
       </c>
-      <c r="T67" t="n">
-        <v>0</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>12/29/2024 23:50</t>
+        </is>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
         <v>20</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
         <v>20</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
@@ -11649,10 +11981,10 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
@@ -11667,10 +11999,10 @@
         <v>0</v>
       </c>
       <c r="AO67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
         <v>0</v>
@@ -11679,6 +12011,9 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11770,23 +12105,25 @@
           <t>43</t>
         </is>
       </c>
-      <c r="T68" t="n">
-        <v>0</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>12/30/2024 11:24</t>
+        </is>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z68" t="n">
         <v>75</v>
@@ -11795,13 +12132,13 @@
         <v>75</v>
       </c>
       <c r="AB68" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC68" t="n">
         <v>20</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -11816,10 +12153,10 @@
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68" t="n">
         <v>0</v>
@@ -11834,10 +12171,10 @@
         <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
@@ -11846,6 +12183,9 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11937,23 +12277,25 @@
           <t>32</t>
         </is>
       </c>
-      <c r="T69" t="n">
-        <v>0</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>12/30/2024 19:35</t>
+        </is>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z69" t="n">
         <v>75</v>
@@ -11962,19 +12304,19 @@
         <v>75</v>
       </c>
       <c r="AB69" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="n">
         <v>50</v>
       </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="n">
         <v>0</v>
@@ -11992,10 +12334,10 @@
         <v>0</v>
       </c>
       <c r="AL69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
@@ -12013,6 +12355,9 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12104,11 +12449,13 @@
           <t>24</t>
         </is>
       </c>
-      <c r="T70" t="n">
-        <v>1</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>12/30/2024 19:52</t>
+        </is>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -12117,10 +12464,10 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="n">
         <v>75</v>
@@ -12129,14 +12476,14 @@
         <v>75</v>
       </c>
       <c r="AB70" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="n">
         <v>40</v>
       </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
       <c r="AE70" t="n">
         <v>0</v>
       </c>
@@ -12144,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI70" t="n">
         <v>0</v>
@@ -12171,15 +12518,18 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
       </c>
       <c r="AS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="n">
         <v>0</v>
       </c>
     </row>

--- a/survey_data_cleaned.xlsx
+++ b/survey_data_cleaned.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
